--- a/Fuente chart.xlsx
+++ b/Fuente chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilici\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilici\Documents\GitHub\Energia_AutoTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4BFF25-0B70-48EE-978C-2597411D05B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF86E7DC-A11C-4E9D-A221-2BC6CF973787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4012708B-A63B-448F-B0F5-D2F79B2DC4CC}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Energia BSAS</t>
+    <t>Energia GBA</t>
   </si>
   <si>
-    <t>Energia GBA</t>
+    <t>Energia PBA</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4CBB9F-8116-40A6-B821-D87D9CD3DAA9}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -410,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -901,26 +903,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>44440</v>
-      </c>
-      <c r="B46">
-        <v>1834.8959972222212</v>
-      </c>
-      <c r="C46">
-        <v>5523.7907694444411</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>44470</v>
-      </c>
-      <c r="B47">
-        <v>1761.8096908602147</v>
-      </c>
-      <c r="C47">
-        <v>5154.953466397852</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>

--- a/Fuente chart.xlsx
+++ b/Fuente chart.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilici\Documents\GitHub\Energia_AutoTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF86E7DC-A11C-4E9D-A221-2BC6CF973787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521AE2DB-5337-4977-8B9F-00400797EC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4012708B-A63B-448F-B0F5-D2F79B2DC4CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4012708B-A63B-448F-B0F5-D2F79B2DC4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
+    <sheet name="2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="16">
   <si>
     <t>Fecha</t>
   </si>
@@ -43,6 +44,45 @@
   </si>
   <si>
     <t>Energia PBA</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Tipo Dia</t>
+  </si>
+  <si>
+    <t>Clima PBA</t>
+  </si>
+  <si>
+    <t>Clima GBA</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Lunes hábil</t>
+  </si>
+  <si>
+    <t>Martes hábil</t>
+  </si>
+  <si>
+    <t>Jueves hábil</t>
+  </si>
+  <si>
+    <t>Viernes hábil</t>
+  </si>
+  <si>
+    <t>Domingo o feriado</t>
+  </si>
+  <si>
+    <t>Sábado o semi laboral</t>
+  </si>
+  <si>
+    <t>Miércoles hábil</t>
   </si>
 </sst>
 </file>
@@ -78,9 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,9 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4CBB9F-8116-40A6-B821-D87D9CD3DAA9}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -914,4 +953,4920 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D960968B-FB55-49C9-9094-9CBD4AAC323A}">
+  <dimension ref="A1:I169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1626.5</v>
+      </c>
+      <c r="E2">
+        <v>12.8</v>
+      </c>
+      <c r="F2">
+        <v>4530.3</v>
+      </c>
+      <c r="G2">
+        <v>12.8</v>
+      </c>
+      <c r="H2">
+        <v>2021</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>44494.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1532.9</v>
+      </c>
+      <c r="E3">
+        <v>13.266666669999999</v>
+      </c>
+      <c r="F3">
+        <v>4117.7</v>
+      </c>
+      <c r="G3">
+        <v>13.266666669999999</v>
+      </c>
+      <c r="H3">
+        <v>2021</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44494.083333333336</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1475.8</v>
+      </c>
+      <c r="E4">
+        <v>13.733333330000001</v>
+      </c>
+      <c r="F4">
+        <v>3792.7</v>
+      </c>
+      <c r="G4">
+        <v>13.733333330000001</v>
+      </c>
+      <c r="H4">
+        <v>2021</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44494.125</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1441.7</v>
+      </c>
+      <c r="E5">
+        <v>14.2</v>
+      </c>
+      <c r="F5">
+        <v>3628</v>
+      </c>
+      <c r="G5">
+        <v>14.2</v>
+      </c>
+      <c r="H5">
+        <v>2021</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44494.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1426.2</v>
+      </c>
+      <c r="E6">
+        <v>14.66666667</v>
+      </c>
+      <c r="F6">
+        <v>3558.7</v>
+      </c>
+      <c r="G6">
+        <v>14.66666667</v>
+      </c>
+      <c r="H6">
+        <v>2021</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>44494.208333333336</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1454.7</v>
+      </c>
+      <c r="E7">
+        <v>15.133333329999999</v>
+      </c>
+      <c r="F7">
+        <v>3579.2</v>
+      </c>
+      <c r="G7">
+        <v>15.133333329999999</v>
+      </c>
+      <c r="H7">
+        <v>2021</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>44494.25</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>1515.9</v>
+      </c>
+      <c r="E8">
+        <v>15.6</v>
+      </c>
+      <c r="F8">
+        <v>3715.8</v>
+      </c>
+      <c r="G8">
+        <v>15.6</v>
+      </c>
+      <c r="H8">
+        <v>2021</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>44494.291666666664</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>1479.8</v>
+      </c>
+      <c r="E9">
+        <v>17.466666669999999</v>
+      </c>
+      <c r="F9">
+        <v>3993.6</v>
+      </c>
+      <c r="G9">
+        <v>17.466666669999999</v>
+      </c>
+      <c r="H9">
+        <v>2021</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>44494.333333333336</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1628.8</v>
+      </c>
+      <c r="E10">
+        <v>19.333333329999999</v>
+      </c>
+      <c r="F10">
+        <v>4513.8999999999996</v>
+      </c>
+      <c r="G10">
+        <v>19.333333329999999</v>
+      </c>
+      <c r="H10">
+        <v>2021</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44494.375</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1722.2</v>
+      </c>
+      <c r="E11">
+        <v>21.2</v>
+      </c>
+      <c r="F11">
+        <v>4899.1000000000004</v>
+      </c>
+      <c r="G11">
+        <v>21.2</v>
+      </c>
+      <c r="H11">
+        <v>2021</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>44494.416666666664</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>1766.9</v>
+      </c>
+      <c r="E12">
+        <v>23.633333329999999</v>
+      </c>
+      <c r="F12">
+        <v>5244.9</v>
+      </c>
+      <c r="G12">
+        <v>23.633333329999999</v>
+      </c>
+      <c r="H12">
+        <v>2021</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>44494.458333333336</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>1813.4</v>
+      </c>
+      <c r="E13">
+        <v>26.06666667</v>
+      </c>
+      <c r="F13">
+        <v>5470.5</v>
+      </c>
+      <c r="G13">
+        <v>26.06666667</v>
+      </c>
+      <c r="H13">
+        <v>2021</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>44494.5</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1854.8</v>
+      </c>
+      <c r="E14">
+        <v>28.5</v>
+      </c>
+      <c r="F14">
+        <v>5654.6</v>
+      </c>
+      <c r="G14">
+        <v>28.5</v>
+      </c>
+      <c r="H14">
+        <v>2021</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>44494.541666666664</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1880.8</v>
+      </c>
+      <c r="E15">
+        <v>29.3</v>
+      </c>
+      <c r="F15">
+        <v>5701.4</v>
+      </c>
+      <c r="G15">
+        <v>29.3</v>
+      </c>
+      <c r="H15">
+        <v>2021</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>44494.583333333336</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1847.5</v>
+      </c>
+      <c r="E16">
+        <v>30.1</v>
+      </c>
+      <c r="F16">
+        <v>5766.8</v>
+      </c>
+      <c r="G16">
+        <v>30.1</v>
+      </c>
+      <c r="H16">
+        <v>2021</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>44494.625</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>1833.1</v>
+      </c>
+      <c r="E17">
+        <v>30.9</v>
+      </c>
+      <c r="F17">
+        <v>5745.2</v>
+      </c>
+      <c r="G17">
+        <v>30.9</v>
+      </c>
+      <c r="H17">
+        <v>2021</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44494.666666666664</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1867</v>
+      </c>
+      <c r="E18">
+        <v>30.2</v>
+      </c>
+      <c r="F18">
+        <v>5705.8</v>
+      </c>
+      <c r="G18">
+        <v>30.2</v>
+      </c>
+      <c r="H18">
+        <v>2021</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44494.708333333336</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1866.2</v>
+      </c>
+      <c r="E19">
+        <v>29.5</v>
+      </c>
+      <c r="F19">
+        <v>5645.3</v>
+      </c>
+      <c r="G19">
+        <v>29.5</v>
+      </c>
+      <c r="H19">
+        <v>2021</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44494.75</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>1842.9</v>
+      </c>
+      <c r="E20">
+        <v>28.8</v>
+      </c>
+      <c r="F20">
+        <v>5549.4</v>
+      </c>
+      <c r="G20">
+        <v>28.8</v>
+      </c>
+      <c r="H20">
+        <v>2021</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44494.791666666664</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1824.7</v>
+      </c>
+      <c r="E21">
+        <v>25.766666669999999</v>
+      </c>
+      <c r="F21">
+        <v>5484.1</v>
+      </c>
+      <c r="G21">
+        <v>25.766666669999999</v>
+      </c>
+      <c r="H21">
+        <v>2021</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44494.833333333336</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>1955.8</v>
+      </c>
+      <c r="E22">
+        <v>22.733333330000001</v>
+      </c>
+      <c r="F22">
+        <v>5822.2</v>
+      </c>
+      <c r="G22">
+        <v>22.733333330000001</v>
+      </c>
+      <c r="H22">
+        <v>2021</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44494.875</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>2077.8000000000002</v>
+      </c>
+      <c r="E23">
+        <v>19.7</v>
+      </c>
+      <c r="F23">
+        <v>6195.5</v>
+      </c>
+      <c r="G23">
+        <v>19.7</v>
+      </c>
+      <c r="H23">
+        <v>2021</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44494.916666666664</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>2030.7</v>
+      </c>
+      <c r="E24">
+        <v>18.233333330000001</v>
+      </c>
+      <c r="F24">
+        <v>6039.9</v>
+      </c>
+      <c r="G24">
+        <v>18.233333330000001</v>
+      </c>
+      <c r="H24">
+        <v>2021</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44494.958333333336</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1939.7</v>
+      </c>
+      <c r="E25">
+        <v>16.766666669999999</v>
+      </c>
+      <c r="F25">
+        <v>5582</v>
+      </c>
+      <c r="G25">
+        <v>16.766666669999999</v>
+      </c>
+      <c r="H25">
+        <v>2021</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>1809.3</v>
+      </c>
+      <c r="E26">
+        <v>15.3</v>
+      </c>
+      <c r="F26">
+        <v>5103.5</v>
+      </c>
+      <c r="G26">
+        <v>15.3</v>
+      </c>
+      <c r="H26">
+        <v>2021</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44495.041666666664</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>1719.8</v>
+      </c>
+      <c r="E27">
+        <v>14.83333333</v>
+      </c>
+      <c r="F27">
+        <v>4578.8</v>
+      </c>
+      <c r="G27">
+        <v>14.83333333</v>
+      </c>
+      <c r="H27">
+        <v>2021</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>44495.083333333336</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>1651.5</v>
+      </c>
+      <c r="E28">
+        <v>14.366666670000001</v>
+      </c>
+      <c r="F28">
+        <v>4203.3999999999996</v>
+      </c>
+      <c r="G28">
+        <v>14.366666670000001</v>
+      </c>
+      <c r="H28">
+        <v>2021</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>44495.125</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>1610.3</v>
+      </c>
+      <c r="E29">
+        <v>13.9</v>
+      </c>
+      <c r="F29">
+        <v>4002.2</v>
+      </c>
+      <c r="G29">
+        <v>13.9</v>
+      </c>
+      <c r="H29">
+        <v>2021</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>44495.166666666664</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>1609.6</v>
+      </c>
+      <c r="E30">
+        <v>13.96666667</v>
+      </c>
+      <c r="F30">
+        <v>3916.6</v>
+      </c>
+      <c r="G30">
+        <v>13.96666667</v>
+      </c>
+      <c r="H30">
+        <v>2021</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44495.208333333336</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>1606.2</v>
+      </c>
+      <c r="E31">
+        <v>14.03333333</v>
+      </c>
+      <c r="F31">
+        <v>3918.1</v>
+      </c>
+      <c r="G31">
+        <v>14.03333333</v>
+      </c>
+      <c r="H31">
+        <v>2021</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44495.25</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>1610.2</v>
+      </c>
+      <c r="E32">
+        <v>14.1</v>
+      </c>
+      <c r="F32">
+        <v>3991.6</v>
+      </c>
+      <c r="G32">
+        <v>14.1</v>
+      </c>
+      <c r="H32">
+        <v>2021</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44495.291666666664</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>1592</v>
+      </c>
+      <c r="E33">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F33">
+        <v>4209.7</v>
+      </c>
+      <c r="G33">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H33">
+        <v>2021</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>44495.333333333336</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>1695.3</v>
+      </c>
+      <c r="E34">
+        <v>20.7</v>
+      </c>
+      <c r="F34">
+        <v>4745.2</v>
+      </c>
+      <c r="G34">
+        <v>20.7</v>
+      </c>
+      <c r="H34">
+        <v>2021</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44495.375</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>1730.8</v>
+      </c>
+      <c r="E35">
+        <v>24</v>
+      </c>
+      <c r="F35">
+        <v>5174.5</v>
+      </c>
+      <c r="G35">
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <v>2021</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44495.416666666664</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>1822</v>
+      </c>
+      <c r="E36">
+        <v>26.666666670000001</v>
+      </c>
+      <c r="F36">
+        <v>5602</v>
+      </c>
+      <c r="G36">
+        <v>26.666666670000001</v>
+      </c>
+      <c r="H36">
+        <v>2021</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44495.458333333336</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>1886.5</v>
+      </c>
+      <c r="E37">
+        <v>29.333333329999999</v>
+      </c>
+      <c r="F37">
+        <v>5916.1</v>
+      </c>
+      <c r="G37">
+        <v>29.333333329999999</v>
+      </c>
+      <c r="H37">
+        <v>2021</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44495.5</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>1930.6</v>
+      </c>
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="F38">
+        <v>6203.2</v>
+      </c>
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="H38">
+        <v>2021</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44495.541666666664</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>1952.2</v>
+      </c>
+      <c r="E39">
+        <v>33.033333329999998</v>
+      </c>
+      <c r="F39">
+        <v>6389.5</v>
+      </c>
+      <c r="G39">
+        <v>33.033333329999998</v>
+      </c>
+      <c r="H39">
+        <v>2021</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>44495.583333333336</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>1956.4</v>
+      </c>
+      <c r="E40">
+        <v>34.066666669999996</v>
+      </c>
+      <c r="F40">
+        <v>6573.2</v>
+      </c>
+      <c r="G40">
+        <v>34.066666669999996</v>
+      </c>
+      <c r="H40">
+        <v>2021</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>44495.625</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>1959.1</v>
+      </c>
+      <c r="E41">
+        <v>35.1</v>
+      </c>
+      <c r="F41">
+        <v>6728.9</v>
+      </c>
+      <c r="G41">
+        <v>35.1</v>
+      </c>
+      <c r="H41">
+        <v>2021</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>44495.666666666664</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>1979.2</v>
+      </c>
+      <c r="E42">
+        <v>34.1</v>
+      </c>
+      <c r="F42">
+        <v>6815</v>
+      </c>
+      <c r="G42">
+        <v>34.1</v>
+      </c>
+      <c r="H42">
+        <v>2021</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>44495.708333333336</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>1987.1</v>
+      </c>
+      <c r="E43">
+        <v>33.1</v>
+      </c>
+      <c r="F43">
+        <v>6819.1</v>
+      </c>
+      <c r="G43">
+        <v>33.1</v>
+      </c>
+      <c r="H43">
+        <v>2021</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44495.75</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>1919.3</v>
+      </c>
+      <c r="E44">
+        <v>32.1</v>
+      </c>
+      <c r="F44">
+        <v>6730.7</v>
+      </c>
+      <c r="G44">
+        <v>32.1</v>
+      </c>
+      <c r="H44">
+        <v>2021</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44495.791666666664</v>
+      </c>
+      <c r="B45">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>1919.1</v>
+      </c>
+      <c r="E45">
+        <v>29.133333329999999</v>
+      </c>
+      <c r="F45">
+        <v>6582.6</v>
+      </c>
+      <c r="G45">
+        <v>29.133333329999999</v>
+      </c>
+      <c r="H45">
+        <v>2021</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44495.833333333336</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>2048.6</v>
+      </c>
+      <c r="E46">
+        <v>26.166666670000001</v>
+      </c>
+      <c r="F46">
+        <v>6859</v>
+      </c>
+      <c r="G46">
+        <v>26.166666670000001</v>
+      </c>
+      <c r="H46">
+        <v>2021</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44495.875</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>2157.6999999999998</v>
+      </c>
+      <c r="E47">
+        <v>23.2</v>
+      </c>
+      <c r="F47">
+        <v>7282.6</v>
+      </c>
+      <c r="G47">
+        <v>23.2</v>
+      </c>
+      <c r="H47">
+        <v>2021</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44495.916666666664</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>2163.6999999999998</v>
+      </c>
+      <c r="E48">
+        <v>22.1</v>
+      </c>
+      <c r="F48">
+        <v>7201.8</v>
+      </c>
+      <c r="G48">
+        <v>22.1</v>
+      </c>
+      <c r="H48">
+        <v>2021</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>44495.958333333336</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>2027.9</v>
+      </c>
+      <c r="E49">
+        <v>21</v>
+      </c>
+      <c r="F49">
+        <v>6793.2</v>
+      </c>
+      <c r="G49">
+        <v>21</v>
+      </c>
+      <c r="H49">
+        <v>2021</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>1923</v>
+      </c>
+      <c r="E50">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F50">
+        <v>6237.1</v>
+      </c>
+      <c r="G50">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H50">
+        <v>2021</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>44496.041666666664</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>1815.3</v>
+      </c>
+      <c r="E51">
+        <v>19</v>
+      </c>
+      <c r="F51">
+        <v>5648</v>
+      </c>
+      <c r="G51">
+        <v>19</v>
+      </c>
+      <c r="H51">
+        <v>2021</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>44496.083333333336</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>1705.5</v>
+      </c>
+      <c r="E52">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F52">
+        <v>5152.3999999999996</v>
+      </c>
+      <c r="G52">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H52">
+        <v>2021</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>44496.125</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>1694.4</v>
+      </c>
+      <c r="E53">
+        <v>17.2</v>
+      </c>
+      <c r="F53">
+        <v>4864.8999999999996</v>
+      </c>
+      <c r="G53">
+        <v>17.2</v>
+      </c>
+      <c r="H53">
+        <v>2021</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>44496.166666666664</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>1658.2</v>
+      </c>
+      <c r="E54">
+        <v>16.7</v>
+      </c>
+      <c r="F54">
+        <v>4678.3</v>
+      </c>
+      <c r="G54">
+        <v>16.7</v>
+      </c>
+      <c r="H54">
+        <v>2021</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>44496.208333333336</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>1672.5</v>
+      </c>
+      <c r="E55">
+        <v>16.2</v>
+      </c>
+      <c r="F55">
+        <v>4586.6000000000004</v>
+      </c>
+      <c r="G55">
+        <v>16.2</v>
+      </c>
+      <c r="H55">
+        <v>2021</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>44496.25</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>1675.6</v>
+      </c>
+      <c r="E56">
+        <v>15.7</v>
+      </c>
+      <c r="F56">
+        <v>4575.3999999999996</v>
+      </c>
+      <c r="G56">
+        <v>15.7</v>
+      </c>
+      <c r="H56">
+        <v>2021</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>44496.291666666664</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>1629.6</v>
+      </c>
+      <c r="E57">
+        <v>19.033333330000001</v>
+      </c>
+      <c r="F57">
+        <v>4703.5</v>
+      </c>
+      <c r="G57">
+        <v>19.033333330000001</v>
+      </c>
+      <c r="H57">
+        <v>2021</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>44496.333333333336</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>1757.5</v>
+      </c>
+      <c r="E58">
+        <v>22.366666670000001</v>
+      </c>
+      <c r="F58">
+        <v>5201.3999999999996</v>
+      </c>
+      <c r="G58">
+        <v>22.366666670000001</v>
+      </c>
+      <c r="H58">
+        <v>2021</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>44496.375</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>1808.3</v>
+      </c>
+      <c r="E59">
+        <v>25.7</v>
+      </c>
+      <c r="F59">
+        <v>5729.7</v>
+      </c>
+      <c r="G59">
+        <v>25.7</v>
+      </c>
+      <c r="H59">
+        <v>2021</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>44496.416666666664</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>1901.4</v>
+      </c>
+      <c r="E60">
+        <v>28.233333330000001</v>
+      </c>
+      <c r="F60">
+        <v>6215.3</v>
+      </c>
+      <c r="G60">
+        <v>28.233333330000001</v>
+      </c>
+      <c r="H60">
+        <v>2021</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>44496.458333333336</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>2023.5</v>
+      </c>
+      <c r="E61">
+        <v>30.766666669999999</v>
+      </c>
+      <c r="F61">
+        <v>6596.4</v>
+      </c>
+      <c r="G61">
+        <v>30.766666669999999</v>
+      </c>
+      <c r="H61">
+        <v>2021</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>44496.5</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>2083</v>
+      </c>
+      <c r="E62">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F62">
+        <v>6982.8</v>
+      </c>
+      <c r="G62">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H62">
+        <v>2021</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>44496.541666666664</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>2142.9</v>
+      </c>
+      <c r="E63">
+        <v>33.533333329999998</v>
+      </c>
+      <c r="F63">
+        <v>7302.7</v>
+      </c>
+      <c r="G63">
+        <v>33.533333329999998</v>
+      </c>
+      <c r="H63">
+        <v>2021</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>44496.583333333336</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>2154.4</v>
+      </c>
+      <c r="E64">
+        <v>33.766666669999999</v>
+      </c>
+      <c r="F64">
+        <v>7598.6</v>
+      </c>
+      <c r="G64">
+        <v>33.766666669999999</v>
+      </c>
+      <c r="H64">
+        <v>2021</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>44496.625</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>2144.9</v>
+      </c>
+      <c r="E65">
+        <v>34</v>
+      </c>
+      <c r="F65">
+        <v>7799.3</v>
+      </c>
+      <c r="G65">
+        <v>34</v>
+      </c>
+      <c r="H65">
+        <v>2021</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>44496.666666666664</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>2160.8000000000002</v>
+      </c>
+      <c r="E66">
+        <v>32.833333330000002</v>
+      </c>
+      <c r="F66">
+        <v>7862.5</v>
+      </c>
+      <c r="G66">
+        <v>32.833333330000002</v>
+      </c>
+      <c r="H66">
+        <v>2021</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>44496.708333333336</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>2158.1</v>
+      </c>
+      <c r="E67">
+        <v>31.666666670000001</v>
+      </c>
+      <c r="F67">
+        <v>7763</v>
+      </c>
+      <c r="G67">
+        <v>31.666666670000001</v>
+      </c>
+      <c r="H67">
+        <v>2021</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>44496.75</v>
+      </c>
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>2119.6</v>
+      </c>
+      <c r="E68">
+        <v>30.5</v>
+      </c>
+      <c r="F68">
+        <v>7575.9</v>
+      </c>
+      <c r="G68">
+        <v>30.5</v>
+      </c>
+      <c r="H68">
+        <v>2021</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>44496.791666666664</v>
+      </c>
+      <c r="B69">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>2070.6999999999998</v>
+      </c>
+      <c r="E69">
+        <v>27.9</v>
+      </c>
+      <c r="F69">
+        <v>7362.3</v>
+      </c>
+      <c r="G69">
+        <v>27.9</v>
+      </c>
+      <c r="H69">
+        <v>2021</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>44496.833333333336</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>2120.8000000000002</v>
+      </c>
+      <c r="E70">
+        <v>25.3</v>
+      </c>
+      <c r="F70">
+        <v>7542.9</v>
+      </c>
+      <c r="G70">
+        <v>25.3</v>
+      </c>
+      <c r="H70">
+        <v>2021</v>
+      </c>
+      <c r="I70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>44496.875</v>
+      </c>
+      <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>2234.3000000000002</v>
+      </c>
+      <c r="E71">
+        <v>22.7</v>
+      </c>
+      <c r="F71">
+        <v>7919.7</v>
+      </c>
+      <c r="G71">
+        <v>22.7</v>
+      </c>
+      <c r="H71">
+        <v>2021</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>44496.916666666664</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>2150.1999999999998</v>
+      </c>
+      <c r="E72">
+        <v>21.56666667</v>
+      </c>
+      <c r="F72">
+        <v>7825.4</v>
+      </c>
+      <c r="G72">
+        <v>21.56666667</v>
+      </c>
+      <c r="H72">
+        <v>2021</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>44496.958333333336</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>2018.2</v>
+      </c>
+      <c r="E73">
+        <v>20.43333333</v>
+      </c>
+      <c r="F73">
+        <v>7368.3</v>
+      </c>
+      <c r="G73">
+        <v>20.43333333</v>
+      </c>
+      <c r="H73">
+        <v>2021</v>
+      </c>
+      <c r="I73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>1948.6</v>
+      </c>
+      <c r="E74">
+        <v>19.3</v>
+      </c>
+      <c r="F74">
+        <v>6779.3</v>
+      </c>
+      <c r="G74">
+        <v>19.3</v>
+      </c>
+      <c r="H74">
+        <v>2021</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>44497.041666666664</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>1837</v>
+      </c>
+      <c r="E75">
+        <v>18.833333329999999</v>
+      </c>
+      <c r="F75">
+        <v>6196.5</v>
+      </c>
+      <c r="G75">
+        <v>18.833333329999999</v>
+      </c>
+      <c r="H75">
+        <v>2021</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>44497.083333333336</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>1805.5</v>
+      </c>
+      <c r="E76">
+        <v>18.366666670000001</v>
+      </c>
+      <c r="F76">
+        <v>5697.1</v>
+      </c>
+      <c r="G76">
+        <v>18.366666670000001</v>
+      </c>
+      <c r="H76">
+        <v>2021</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>44497.125</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>1734.8</v>
+      </c>
+      <c r="E77">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F77">
+        <v>5373.8</v>
+      </c>
+      <c r="G77">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H77">
+        <v>2021</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>44497.166666666664</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>1715.6</v>
+      </c>
+      <c r="E78">
+        <v>17.766666669999999</v>
+      </c>
+      <c r="F78">
+        <v>5178.5</v>
+      </c>
+      <c r="G78">
+        <v>17.766666669999999</v>
+      </c>
+      <c r="H78">
+        <v>2021</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>44497.208333333336</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>1690.4</v>
+      </c>
+      <c r="E79">
+        <v>17.633333329999999</v>
+      </c>
+      <c r="F79">
+        <v>5080.7</v>
+      </c>
+      <c r="G79">
+        <v>17.633333329999999</v>
+      </c>
+      <c r="H79">
+        <v>2021</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>44497.25</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>1682.3</v>
+      </c>
+      <c r="E80">
+        <v>17.5</v>
+      </c>
+      <c r="F80">
+        <v>5028.8999999999996</v>
+      </c>
+      <c r="G80">
+        <v>17.5</v>
+      </c>
+      <c r="H80">
+        <v>2021</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>44497.291666666664</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>1663.5</v>
+      </c>
+      <c r="E81">
+        <v>20.166666670000001</v>
+      </c>
+      <c r="F81">
+        <v>5141.1000000000004</v>
+      </c>
+      <c r="G81">
+        <v>20.166666670000001</v>
+      </c>
+      <c r="H81">
+        <v>2021</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>44497.333333333336</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>1774.5</v>
+      </c>
+      <c r="E82">
+        <v>22.833333329999999</v>
+      </c>
+      <c r="F82">
+        <v>5666.4</v>
+      </c>
+      <c r="G82">
+        <v>22.833333329999999</v>
+      </c>
+      <c r="H82">
+        <v>2021</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>44497.375</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>1923</v>
+      </c>
+      <c r="E83">
+        <v>25.5</v>
+      </c>
+      <c r="F83">
+        <v>6270.1</v>
+      </c>
+      <c r="G83">
+        <v>25.5</v>
+      </c>
+      <c r="H83">
+        <v>2021</v>
+      </c>
+      <c r="I83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>44497.416666666664</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>2022.9</v>
+      </c>
+      <c r="E84">
+        <v>27.4</v>
+      </c>
+      <c r="F84">
+        <v>6874.6</v>
+      </c>
+      <c r="G84">
+        <v>27.4</v>
+      </c>
+      <c r="H84">
+        <v>2021</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>44497.458333333336</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>2145.9</v>
+      </c>
+      <c r="E85">
+        <v>29.3</v>
+      </c>
+      <c r="F85">
+        <v>7285.4</v>
+      </c>
+      <c r="G85">
+        <v>29.3</v>
+      </c>
+      <c r="H85">
+        <v>2021</v>
+      </c>
+      <c r="I85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>44497.5</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>2252.3000000000002</v>
+      </c>
+      <c r="E86">
+        <v>31.2</v>
+      </c>
+      <c r="F86">
+        <v>7742.7</v>
+      </c>
+      <c r="G86">
+        <v>31.2</v>
+      </c>
+      <c r="H86">
+        <v>2021</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>44497.541666666664</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>2292.4</v>
+      </c>
+      <c r="E87">
+        <v>30.533333330000001</v>
+      </c>
+      <c r="F87">
+        <v>8148.3</v>
+      </c>
+      <c r="G87">
+        <v>30.533333330000001</v>
+      </c>
+      <c r="H87">
+        <v>2021</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>44497.583333333336</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>2299</v>
+      </c>
+      <c r="E88">
+        <v>29.866666670000001</v>
+      </c>
+      <c r="F88">
+        <v>8425.6</v>
+      </c>
+      <c r="G88">
+        <v>29.866666670000001</v>
+      </c>
+      <c r="H88">
+        <v>2021</v>
+      </c>
+      <c r="I88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>44497.625</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>2286.1</v>
+      </c>
+      <c r="E89">
+        <v>29.2</v>
+      </c>
+      <c r="F89">
+        <v>8629.6</v>
+      </c>
+      <c r="G89">
+        <v>29.2</v>
+      </c>
+      <c r="H89">
+        <v>2021</v>
+      </c>
+      <c r="I89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>44497.666666666664</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>2288.5</v>
+      </c>
+      <c r="E90">
+        <v>28.633333329999999</v>
+      </c>
+      <c r="F90">
+        <v>8636</v>
+      </c>
+      <c r="G90">
+        <v>28.633333329999999</v>
+      </c>
+      <c r="H90">
+        <v>2021</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>44497.708333333336</v>
+      </c>
+      <c r="B91">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>2341</v>
+      </c>
+      <c r="E91">
+        <v>28.06666667</v>
+      </c>
+      <c r="F91">
+        <v>8437</v>
+      </c>
+      <c r="G91">
+        <v>28.06666667</v>
+      </c>
+      <c r="H91">
+        <v>2021</v>
+      </c>
+      <c r="I91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>44497.75</v>
+      </c>
+      <c r="B92">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>2321</v>
+      </c>
+      <c r="E92">
+        <v>27.5</v>
+      </c>
+      <c r="F92">
+        <v>8052.6</v>
+      </c>
+      <c r="G92">
+        <v>27.5</v>
+      </c>
+      <c r="H92">
+        <v>2021</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>44497.791666666664</v>
+      </c>
+      <c r="B93">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>2223.5</v>
+      </c>
+      <c r="E93">
+        <v>26</v>
+      </c>
+      <c r="F93">
+        <v>7676.9</v>
+      </c>
+      <c r="G93">
+        <v>26</v>
+      </c>
+      <c r="H93">
+        <v>2021</v>
+      </c>
+      <c r="I93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>44497.833333333336</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>2267.5</v>
+      </c>
+      <c r="E94">
+        <v>24.5</v>
+      </c>
+      <c r="F94">
+        <v>7711.3</v>
+      </c>
+      <c r="G94">
+        <v>24.5</v>
+      </c>
+      <c r="H94">
+        <v>2021</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>44497.875</v>
+      </c>
+      <c r="B95">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95">
+        <v>2360.4</v>
+      </c>
+      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>8005.9</v>
+      </c>
+      <c r="G95">
+        <v>23</v>
+      </c>
+      <c r="H95">
+        <v>2021</v>
+      </c>
+      <c r="I95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>44497.916666666664</v>
+      </c>
+      <c r="B96">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>2315.9</v>
+      </c>
+      <c r="E96">
+        <v>22.2</v>
+      </c>
+      <c r="F96">
+        <v>7968.9</v>
+      </c>
+      <c r="G96">
+        <v>22.2</v>
+      </c>
+      <c r="H96">
+        <v>2021</v>
+      </c>
+      <c r="I96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>44497.958333333336</v>
+      </c>
+      <c r="B97">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>2190.3000000000002</v>
+      </c>
+      <c r="E97">
+        <v>21.4</v>
+      </c>
+      <c r="F97">
+        <v>7515.2</v>
+      </c>
+      <c r="G97">
+        <v>21.4</v>
+      </c>
+      <c r="H97">
+        <v>2021</v>
+      </c>
+      <c r="I97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98">
+        <v>2049.5</v>
+      </c>
+      <c r="E98">
+        <v>20.6</v>
+      </c>
+      <c r="F98">
+        <v>7000.9</v>
+      </c>
+      <c r="G98">
+        <v>20.6</v>
+      </c>
+      <c r="H98">
+        <v>2021</v>
+      </c>
+      <c r="I98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>44498.041666666664</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>1955.7</v>
+      </c>
+      <c r="E99">
+        <v>20.033333330000001</v>
+      </c>
+      <c r="F99">
+        <v>6352.4</v>
+      </c>
+      <c r="G99">
+        <v>20.033333330000001</v>
+      </c>
+      <c r="H99">
+        <v>2021</v>
+      </c>
+      <c r="I99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>44498.083333333336</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>1855.5</v>
+      </c>
+      <c r="E100">
+        <v>19.466666669999999</v>
+      </c>
+      <c r="F100">
+        <v>5841.9</v>
+      </c>
+      <c r="G100">
+        <v>19.466666669999999</v>
+      </c>
+      <c r="H100">
+        <v>2021</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>44498.125</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>1781.7</v>
+      </c>
+      <c r="E101">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F101">
+        <v>5510.6</v>
+      </c>
+      <c r="G101">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H101">
+        <v>2021</v>
+      </c>
+      <c r="I101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>44498.166666666664</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>1773.9</v>
+      </c>
+      <c r="E102">
+        <v>17.93333333</v>
+      </c>
+      <c r="F102">
+        <v>5278.9</v>
+      </c>
+      <c r="G102">
+        <v>17.93333333</v>
+      </c>
+      <c r="H102">
+        <v>2021</v>
+      </c>
+      <c r="I102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>44498.208333333336</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>1755.4</v>
+      </c>
+      <c r="E103">
+        <v>16.966666669999999</v>
+      </c>
+      <c r="F103">
+        <v>5162.5</v>
+      </c>
+      <c r="G103">
+        <v>16.966666669999999</v>
+      </c>
+      <c r="H103">
+        <v>2021</v>
+      </c>
+      <c r="I103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>44498.25</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>1719.7</v>
+      </c>
+      <c r="E104">
+        <v>16</v>
+      </c>
+      <c r="F104">
+        <v>5042.8</v>
+      </c>
+      <c r="G104">
+        <v>16</v>
+      </c>
+      <c r="H104">
+        <v>2021</v>
+      </c>
+      <c r="I104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>44498.291666666664</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>1681.6</v>
+      </c>
+      <c r="E105">
+        <v>17.833333329999999</v>
+      </c>
+      <c r="F105">
+        <v>5106.3</v>
+      </c>
+      <c r="G105">
+        <v>17.833333329999999</v>
+      </c>
+      <c r="H105">
+        <v>2021</v>
+      </c>
+      <c r="I105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>44498.333333333336</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>1771.1</v>
+      </c>
+      <c r="E106">
+        <v>19.666666670000001</v>
+      </c>
+      <c r="F106">
+        <v>5545.6</v>
+      </c>
+      <c r="G106">
+        <v>19.666666670000001</v>
+      </c>
+      <c r="H106">
+        <v>2021</v>
+      </c>
+      <c r="I106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>44498.375</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <v>1886.2</v>
+      </c>
+      <c r="E107">
+        <v>21.5</v>
+      </c>
+      <c r="F107">
+        <v>6037.6</v>
+      </c>
+      <c r="G107">
+        <v>21.5</v>
+      </c>
+      <c r="H107">
+        <v>2021</v>
+      </c>
+      <c r="I107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>44498.416666666664</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108">
+        <v>2060</v>
+      </c>
+      <c r="E108">
+        <v>23.3</v>
+      </c>
+      <c r="F108">
+        <v>6441.2</v>
+      </c>
+      <c r="G108">
+        <v>23.3</v>
+      </c>
+      <c r="H108">
+        <v>2021</v>
+      </c>
+      <c r="I108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>44498.458333333336</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>2130.8000000000002</v>
+      </c>
+      <c r="E109">
+        <v>25.1</v>
+      </c>
+      <c r="F109">
+        <v>6685.3</v>
+      </c>
+      <c r="G109">
+        <v>25.1</v>
+      </c>
+      <c r="H109">
+        <v>2021</v>
+      </c>
+      <c r="I109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>44498.5</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>2204.8000000000002</v>
+      </c>
+      <c r="E110">
+        <v>26.9</v>
+      </c>
+      <c r="F110">
+        <v>6956.7</v>
+      </c>
+      <c r="G110">
+        <v>26.9</v>
+      </c>
+      <c r="H110">
+        <v>2021</v>
+      </c>
+      <c r="I110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>44498.541666666664</v>
+      </c>
+      <c r="B111">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>2258.9</v>
+      </c>
+      <c r="E111">
+        <v>26.833333329999999</v>
+      </c>
+      <c r="F111">
+        <v>7199.5</v>
+      </c>
+      <c r="G111">
+        <v>26.833333329999999</v>
+      </c>
+      <c r="H111">
+        <v>2021</v>
+      </c>
+      <c r="I111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>44498.583333333336</v>
+      </c>
+      <c r="B112">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>2287</v>
+      </c>
+      <c r="E112">
+        <v>26.766666669999999</v>
+      </c>
+      <c r="F112">
+        <v>7406.2</v>
+      </c>
+      <c r="G112">
+        <v>26.766666669999999</v>
+      </c>
+      <c r="H112">
+        <v>2021</v>
+      </c>
+      <c r="I112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>44498.625</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>2321.6</v>
+      </c>
+      <c r="E113">
+        <v>26.7</v>
+      </c>
+      <c r="F113">
+        <v>7578.4</v>
+      </c>
+      <c r="G113">
+        <v>26.7</v>
+      </c>
+      <c r="H113">
+        <v>2021</v>
+      </c>
+      <c r="I113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>44498.666666666664</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>2266.5</v>
+      </c>
+      <c r="E114">
+        <v>25.966666669999999</v>
+      </c>
+      <c r="F114">
+        <v>7631.4</v>
+      </c>
+      <c r="G114">
+        <v>25.966666669999999</v>
+      </c>
+      <c r="H114">
+        <v>2021</v>
+      </c>
+      <c r="I114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>44498.708333333336</v>
+      </c>
+      <c r="B115">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>2248.6999999999998</v>
+      </c>
+      <c r="E115">
+        <v>25.233333330000001</v>
+      </c>
+      <c r="F115">
+        <v>7522.3</v>
+      </c>
+      <c r="G115">
+        <v>25.233333330000001</v>
+      </c>
+      <c r="H115">
+        <v>2021</v>
+      </c>
+      <c r="I115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>44498.75</v>
+      </c>
+      <c r="B116">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>2242.1</v>
+      </c>
+      <c r="E116">
+        <v>24.5</v>
+      </c>
+      <c r="F116">
+        <v>7253.2</v>
+      </c>
+      <c r="G116">
+        <v>24.5</v>
+      </c>
+      <c r="H116">
+        <v>2021</v>
+      </c>
+      <c r="I116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>44498.791666666664</v>
+      </c>
+      <c r="B117">
+        <v>19</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>2193.6999999999998</v>
+      </c>
+      <c r="E117">
+        <v>23.3</v>
+      </c>
+      <c r="F117">
+        <v>6955.8</v>
+      </c>
+      <c r="G117">
+        <v>23.3</v>
+      </c>
+      <c r="H117">
+        <v>2021</v>
+      </c>
+      <c r="I117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>44498.833333333336</v>
+      </c>
+      <c r="B118">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>2211.6999999999998</v>
+      </c>
+      <c r="E118">
+        <v>22.1</v>
+      </c>
+      <c r="F118">
+        <v>7055.1</v>
+      </c>
+      <c r="G118">
+        <v>22.1</v>
+      </c>
+      <c r="H118">
+        <v>2021</v>
+      </c>
+      <c r="I118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>44498.875</v>
+      </c>
+      <c r="B119">
+        <v>21</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>2296.6</v>
+      </c>
+      <c r="E119">
+        <v>20.9</v>
+      </c>
+      <c r="F119">
+        <v>7318</v>
+      </c>
+      <c r="G119">
+        <v>20.9</v>
+      </c>
+      <c r="H119">
+        <v>2021</v>
+      </c>
+      <c r="I119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>44498.916666666664</v>
+      </c>
+      <c r="B120">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>2214.6999999999998</v>
+      </c>
+      <c r="E120">
+        <v>20.56666667</v>
+      </c>
+      <c r="F120">
+        <v>7225.1</v>
+      </c>
+      <c r="G120">
+        <v>20.56666667</v>
+      </c>
+      <c r="H120">
+        <v>2021</v>
+      </c>
+      <c r="I120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>44498.958333333336</v>
+      </c>
+      <c r="B121">
+        <v>23</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>2136.4</v>
+      </c>
+      <c r="E121">
+        <v>20.233333330000001</v>
+      </c>
+      <c r="F121">
+        <v>6962.4</v>
+      </c>
+      <c r="G121">
+        <v>20.233333330000001</v>
+      </c>
+      <c r="H121">
+        <v>2021</v>
+      </c>
+      <c r="I121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122">
+        <v>2027.8</v>
+      </c>
+      <c r="E122">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F122">
+        <v>6567.1</v>
+      </c>
+      <c r="G122">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H122">
+        <v>2021</v>
+      </c>
+      <c r="I122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>44499.041666666664</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123">
+        <v>1925.7</v>
+      </c>
+      <c r="E123">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F123">
+        <v>6095.3</v>
+      </c>
+      <c r="G123">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H123">
+        <v>2021</v>
+      </c>
+      <c r="I123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>44499.083333333336</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124">
+        <v>1826.8</v>
+      </c>
+      <c r="E124">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F124">
+        <v>5629</v>
+      </c>
+      <c r="G124">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H124">
+        <v>2021</v>
+      </c>
+      <c r="I124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>44499.125</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125">
+        <v>1776</v>
+      </c>
+      <c r="E125">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F125">
+        <v>5313</v>
+      </c>
+      <c r="G125">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H125">
+        <v>2021</v>
+      </c>
+      <c r="I125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>44499.166666666664</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126">
+        <v>1703.4</v>
+      </c>
+      <c r="E126">
+        <v>16.3</v>
+      </c>
+      <c r="F126">
+        <v>5093.6000000000004</v>
+      </c>
+      <c r="G126">
+        <v>16.3</v>
+      </c>
+      <c r="H126">
+        <v>2021</v>
+      </c>
+      <c r="I126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>44499.208333333336</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127">
+        <v>1684.4</v>
+      </c>
+      <c r="E127">
+        <v>15.7</v>
+      </c>
+      <c r="F127">
+        <v>4928.5</v>
+      </c>
+      <c r="G127">
+        <v>15.7</v>
+      </c>
+      <c r="H127">
+        <v>2021</v>
+      </c>
+      <c r="I127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>44499.25</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <v>1715.9</v>
+      </c>
+      <c r="E128">
+        <v>15.1</v>
+      </c>
+      <c r="F128">
+        <v>4758.8999999999996</v>
+      </c>
+      <c r="G128">
+        <v>15.1</v>
+      </c>
+      <c r="H128">
+        <v>2021</v>
+      </c>
+      <c r="I128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>44499.291666666664</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129">
+        <v>1619.3</v>
+      </c>
+      <c r="E129">
+        <v>17.56666667</v>
+      </c>
+      <c r="F129">
+        <v>4579.8</v>
+      </c>
+      <c r="G129">
+        <v>17.56666667</v>
+      </c>
+      <c r="H129">
+        <v>2021</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>44499.333333333336</v>
+      </c>
+      <c r="B130">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130">
+        <v>1692.5</v>
+      </c>
+      <c r="E130">
+        <v>20.033333330000001</v>
+      </c>
+      <c r="F130">
+        <v>4762.8</v>
+      </c>
+      <c r="G130">
+        <v>20.033333330000001</v>
+      </c>
+      <c r="H130">
+        <v>2021</v>
+      </c>
+      <c r="I130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>44499.375</v>
+      </c>
+      <c r="B131">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131">
+        <v>1806.4</v>
+      </c>
+      <c r="E131">
+        <v>22.5</v>
+      </c>
+      <c r="F131">
+        <v>5139.8999999999996</v>
+      </c>
+      <c r="G131">
+        <v>22.5</v>
+      </c>
+      <c r="H131">
+        <v>2021</v>
+      </c>
+      <c r="I131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>44499.416666666664</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132">
+        <v>1899.7</v>
+      </c>
+      <c r="E132">
+        <v>24.166666670000001</v>
+      </c>
+      <c r="F132">
+        <v>5553.8</v>
+      </c>
+      <c r="G132">
+        <v>24.166666670000001</v>
+      </c>
+      <c r="H132">
+        <v>2021</v>
+      </c>
+      <c r="I132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>44499.458333333336</v>
+      </c>
+      <c r="B133">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133">
+        <v>1961.9</v>
+      </c>
+      <c r="E133">
+        <v>25.833333329999999</v>
+      </c>
+      <c r="F133">
+        <v>5877.6</v>
+      </c>
+      <c r="G133">
+        <v>25.833333329999999</v>
+      </c>
+      <c r="H133">
+        <v>2021</v>
+      </c>
+      <c r="I133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>44499.5</v>
+      </c>
+      <c r="B134">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134">
+        <v>2027.3</v>
+      </c>
+      <c r="E134">
+        <v>27.5</v>
+      </c>
+      <c r="F134">
+        <v>6153.3</v>
+      </c>
+      <c r="G134">
+        <v>27.5</v>
+      </c>
+      <c r="H134">
+        <v>2021</v>
+      </c>
+      <c r="I134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>44499.541666666664</v>
+      </c>
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135">
+        <v>2088.1</v>
+      </c>
+      <c r="E135">
+        <v>27.166666670000001</v>
+      </c>
+      <c r="F135">
+        <v>6460.1</v>
+      </c>
+      <c r="G135">
+        <v>27.166666670000001</v>
+      </c>
+      <c r="H135">
+        <v>2021</v>
+      </c>
+      <c r="I135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>44499.583333333336</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136">
+        <v>2057.8000000000002</v>
+      </c>
+      <c r="E136">
+        <v>26.833333329999999</v>
+      </c>
+      <c r="F136">
+        <v>6731.3</v>
+      </c>
+      <c r="G136">
+        <v>26.833333329999999</v>
+      </c>
+      <c r="H136">
+        <v>2021</v>
+      </c>
+      <c r="I136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>44499.625</v>
+      </c>
+      <c r="B137">
+        <v>15</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137">
+        <v>2045.4</v>
+      </c>
+      <c r="E137">
+        <v>26.5</v>
+      </c>
+      <c r="F137">
+        <v>6878.4</v>
+      </c>
+      <c r="G137">
+        <v>26.5</v>
+      </c>
+      <c r="H137">
+        <v>2021</v>
+      </c>
+      <c r="I137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>44499.666666666664</v>
+      </c>
+      <c r="B138">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138">
+        <v>2013.9</v>
+      </c>
+      <c r="E138">
+        <v>25.4</v>
+      </c>
+      <c r="F138">
+        <v>6969</v>
+      </c>
+      <c r="G138">
+        <v>25.4</v>
+      </c>
+      <c r="H138">
+        <v>2021</v>
+      </c>
+      <c r="I138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>44499.708333333336</v>
+      </c>
+      <c r="B139">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139">
+        <v>2023.3</v>
+      </c>
+      <c r="E139">
+        <v>24.3</v>
+      </c>
+      <c r="F139">
+        <v>6965.5</v>
+      </c>
+      <c r="G139">
+        <v>24.3</v>
+      </c>
+      <c r="H139">
+        <v>2021</v>
+      </c>
+      <c r="I139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>44499.75</v>
+      </c>
+      <c r="B140">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140">
+        <v>2027.9</v>
+      </c>
+      <c r="E140">
+        <v>23.2</v>
+      </c>
+      <c r="F140">
+        <v>6836.8</v>
+      </c>
+      <c r="G140">
+        <v>23.2</v>
+      </c>
+      <c r="H140">
+        <v>2021</v>
+      </c>
+      <c r="I140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>44499.791666666664</v>
+      </c>
+      <c r="B141">
+        <v>19</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141">
+        <v>2020.2</v>
+      </c>
+      <c r="E141">
+        <v>21.93333333</v>
+      </c>
+      <c r="F141">
+        <v>6655.6</v>
+      </c>
+      <c r="G141">
+        <v>21.93333333</v>
+      </c>
+      <c r="H141">
+        <v>2021</v>
+      </c>
+      <c r="I141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>44499.833333333336</v>
+      </c>
+      <c r="B142">
+        <v>20</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142">
+        <v>2029.6</v>
+      </c>
+      <c r="E142">
+        <v>20.666666670000001</v>
+      </c>
+      <c r="F142">
+        <v>6788</v>
+      </c>
+      <c r="G142">
+        <v>20.666666670000001</v>
+      </c>
+      <c r="H142">
+        <v>2021</v>
+      </c>
+      <c r="I142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>44499.875</v>
+      </c>
+      <c r="B143">
+        <v>21</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143">
+        <v>2152.9</v>
+      </c>
+      <c r="E143">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F143">
+        <v>7094.2</v>
+      </c>
+      <c r="G143">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H143">
+        <v>2021</v>
+      </c>
+      <c r="I143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>44499.916666666664</v>
+      </c>
+      <c r="B144">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144">
+        <v>2082.5</v>
+      </c>
+      <c r="E144">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F144">
+        <v>6960.5</v>
+      </c>
+      <c r="G144">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H144">
+        <v>2021</v>
+      </c>
+      <c r="I144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>44499.958333333336</v>
+      </c>
+      <c r="B145">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145">
+        <v>1997.7</v>
+      </c>
+      <c r="E145">
+        <v>18.8</v>
+      </c>
+      <c r="F145">
+        <v>6625.1</v>
+      </c>
+      <c r="G145">
+        <v>18.8</v>
+      </c>
+      <c r="H145">
+        <v>2021</v>
+      </c>
+      <c r="I145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146">
+        <v>1885.1</v>
+      </c>
+      <c r="E146">
+        <v>18.5</v>
+      </c>
+      <c r="F146">
+        <v>6249.9</v>
+      </c>
+      <c r="G146">
+        <v>18.5</v>
+      </c>
+      <c r="H146">
+        <v>2021</v>
+      </c>
+      <c r="I146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>44500.041666666664</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147">
+        <v>1820.1</v>
+      </c>
+      <c r="E147">
+        <v>18.133333329999999</v>
+      </c>
+      <c r="F147">
+        <v>5784.4</v>
+      </c>
+      <c r="G147">
+        <v>18.133333329999999</v>
+      </c>
+      <c r="H147">
+        <v>2021</v>
+      </c>
+      <c r="I147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>44500.083333333336</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148">
+        <v>1730.5</v>
+      </c>
+      <c r="E148">
+        <v>17.766666669999999</v>
+      </c>
+      <c r="F148">
+        <v>5369.4</v>
+      </c>
+      <c r="G148">
+        <v>17.766666669999999</v>
+      </c>
+      <c r="H148">
+        <v>2021</v>
+      </c>
+      <c r="I148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>44500.125</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149">
+        <v>1664.3</v>
+      </c>
+      <c r="E149">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F149">
+        <v>4969.8999999999996</v>
+      </c>
+      <c r="G149">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H149">
+        <v>2021</v>
+      </c>
+      <c r="I149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>44500.166666666664</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150">
+        <v>1575.8</v>
+      </c>
+      <c r="E150">
+        <v>16.766666669999999</v>
+      </c>
+      <c r="F150">
+        <v>4639.1000000000004</v>
+      </c>
+      <c r="G150">
+        <v>16.766666669999999</v>
+      </c>
+      <c r="H150">
+        <v>2021</v>
+      </c>
+      <c r="I150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>44500.208333333336</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151">
+        <v>1547.9</v>
+      </c>
+      <c r="E151">
+        <v>16.133333329999999</v>
+      </c>
+      <c r="F151">
+        <v>4417.1000000000004</v>
+      </c>
+      <c r="G151">
+        <v>16.133333329999999</v>
+      </c>
+      <c r="H151">
+        <v>2021</v>
+      </c>
+      <c r="I151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>44500.25</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152">
+        <v>1489.9</v>
+      </c>
+      <c r="E152">
+        <v>15.5</v>
+      </c>
+      <c r="F152">
+        <v>4221.7</v>
+      </c>
+      <c r="G152">
+        <v>15.5</v>
+      </c>
+      <c r="H152">
+        <v>2021</v>
+      </c>
+      <c r="I152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>44500.291666666664</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153">
+        <v>1409.6</v>
+      </c>
+      <c r="E153">
+        <v>15.633333329999999</v>
+      </c>
+      <c r="F153">
+        <v>3879.8</v>
+      </c>
+      <c r="G153">
+        <v>15.633333329999999</v>
+      </c>
+      <c r="H153">
+        <v>2021</v>
+      </c>
+      <c r="I153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>44500.333333333336</v>
+      </c>
+      <c r="B154">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154">
+        <v>1412.9</v>
+      </c>
+      <c r="E154">
+        <v>15.766666669999999</v>
+      </c>
+      <c r="F154">
+        <v>3833.1</v>
+      </c>
+      <c r="G154">
+        <v>15.766666669999999</v>
+      </c>
+      <c r="H154">
+        <v>2021</v>
+      </c>
+      <c r="I154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>44500.375</v>
+      </c>
+      <c r="B155">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155">
+        <v>1429.6</v>
+      </c>
+      <c r="E155">
+        <v>15.9</v>
+      </c>
+      <c r="F155">
+        <v>3913.7</v>
+      </c>
+      <c r="G155">
+        <v>15.9</v>
+      </c>
+      <c r="H155">
+        <v>2021</v>
+      </c>
+      <c r="I155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>44500.416666666664</v>
+      </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156">
+        <v>1474.1</v>
+      </c>
+      <c r="E156">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F156">
+        <v>4065.4</v>
+      </c>
+      <c r="G156">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H156">
+        <v>2021</v>
+      </c>
+      <c r="I156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>44500.458333333336</v>
+      </c>
+      <c r="B157">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157">
+        <v>1496.4</v>
+      </c>
+      <c r="E157">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F157">
+        <v>4215.3</v>
+      </c>
+      <c r="G157">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H157">
+        <v>2021</v>
+      </c>
+      <c r="I157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>44500.5</v>
+      </c>
+      <c r="B158">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158">
+        <v>1549.5</v>
+      </c>
+      <c r="E158">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F158">
+        <v>4350.8999999999996</v>
+      </c>
+      <c r="G158">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H158">
+        <v>2021</v>
+      </c>
+      <c r="I158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>44500.541666666664</v>
+      </c>
+      <c r="B159">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159">
+        <v>1558.3</v>
+      </c>
+      <c r="E159">
+        <v>18.133333329999999</v>
+      </c>
+      <c r="F159">
+        <v>4485.8</v>
+      </c>
+      <c r="G159">
+        <v>18.133333329999999</v>
+      </c>
+      <c r="H159">
+        <v>2021</v>
+      </c>
+      <c r="I159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>44500.583333333336</v>
+      </c>
+      <c r="B160">
+        <v>14</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160">
+        <v>1523.8</v>
+      </c>
+      <c r="E160">
+        <v>18.866666670000001</v>
+      </c>
+      <c r="F160">
+        <v>4493.1000000000004</v>
+      </c>
+      <c r="G160">
+        <v>18.866666670000001</v>
+      </c>
+      <c r="H160">
+        <v>2021</v>
+      </c>
+      <c r="I160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>44500.625</v>
+      </c>
+      <c r="B161">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161">
+        <v>1528.5</v>
+      </c>
+      <c r="E161">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F161">
+        <v>4371.1000000000004</v>
+      </c>
+      <c r="G161">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H161">
+        <v>2021</v>
+      </c>
+      <c r="I161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>44500.666666666664</v>
+      </c>
+      <c r="B162">
+        <v>16</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162">
+        <v>1492.9</v>
+      </c>
+      <c r="E162">
+        <v>18.966666669999999</v>
+      </c>
+      <c r="F162">
+        <v>4275</v>
+      </c>
+      <c r="G162">
+        <v>18.966666669999999</v>
+      </c>
+      <c r="H162">
+        <v>2021</v>
+      </c>
+      <c r="I162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>44500.708333333336</v>
+      </c>
+      <c r="B163">
+        <v>17</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163">
+        <v>1499.4</v>
+      </c>
+      <c r="E163">
+        <v>18.333333329999999</v>
+      </c>
+      <c r="F163">
+        <v>4244.2</v>
+      </c>
+      <c r="G163">
+        <v>18.333333329999999</v>
+      </c>
+      <c r="H163">
+        <v>2021</v>
+      </c>
+      <c r="I163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>44500.75</v>
+      </c>
+      <c r="B164">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164">
+        <v>1525.8</v>
+      </c>
+      <c r="E164">
+        <v>17.7</v>
+      </c>
+      <c r="F164">
+        <v>4265.3999999999996</v>
+      </c>
+      <c r="G164">
+        <v>17.7</v>
+      </c>
+      <c r="H164">
+        <v>2021</v>
+      </c>
+      <c r="I164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>44500.791666666664</v>
+      </c>
+      <c r="B165">
+        <v>19</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165">
+        <v>1549.9</v>
+      </c>
+      <c r="E165">
+        <v>17.3</v>
+      </c>
+      <c r="F165">
+        <v>4396.6000000000004</v>
+      </c>
+      <c r="G165">
+        <v>17.3</v>
+      </c>
+      <c r="H165">
+        <v>2021</v>
+      </c>
+      <c r="I165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>44500.833333333336</v>
+      </c>
+      <c r="B166">
+        <v>20</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166">
+        <v>1711.4</v>
+      </c>
+      <c r="E166">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F166">
+        <v>4819</v>
+      </c>
+      <c r="G166">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H166">
+        <v>2021</v>
+      </c>
+      <c r="I166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>44500.875</v>
+      </c>
+      <c r="B167">
+        <v>21</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167">
+        <v>1807.7</v>
+      </c>
+      <c r="E167">
+        <v>16.5</v>
+      </c>
+      <c r="F167">
+        <v>5148.1000000000004</v>
+      </c>
+      <c r="G167">
+        <v>16.5</v>
+      </c>
+      <c r="H167">
+        <v>2021</v>
+      </c>
+      <c r="I167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>44500.916666666664</v>
+      </c>
+      <c r="B168">
+        <v>22</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168">
+        <v>1812.4</v>
+      </c>
+      <c r="E168">
+        <v>15.9</v>
+      </c>
+      <c r="F168">
+        <v>5140.3999999999996</v>
+      </c>
+      <c r="G168">
+        <v>15.9</v>
+      </c>
+      <c r="H168">
+        <v>2021</v>
+      </c>
+      <c r="I168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>44500.958333333336</v>
+      </c>
+      <c r="B169">
+        <v>23</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169">
+        <v>1748.8</v>
+      </c>
+      <c r="E169">
+        <v>15.3</v>
+      </c>
+      <c r="F169">
+        <v>4891.8</v>
+      </c>
+      <c r="G169">
+        <v>15.3</v>
+      </c>
+      <c r="H169">
+        <v>2021</v>
+      </c>
+      <c r="I169">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>